--- a/runs/run380/NotionalETEOutput380.xlsx
+++ b/runs/run380/NotionalETEOutput380.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT3_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3_252.MISSILE_SOMERSAULT3_252</t>
+    <t>MISSILE_BRAVER2_251.MISSILE_BRAVER2_251</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1501.380017885414</v>
+        <v>-1439.061524610675</v>
       </c>
       <c r="J2">
-        <v>1938.701822886191</v>
+        <v>1907.540840897017</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1460.029897680637</v>
+        <v>-1447.108849896075</v>
       </c>
       <c r="J3">
-        <v>1895.631805414931</v>
+        <v>1885.045402648325</v>
       </c>
       <c r="K3">
-        <v>305.2131394482528</v>
+        <v>302.7560249023936</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1477.37867842913</v>
+        <v>-1371.329864655141</v>
       </c>
       <c r="J4">
-        <v>1946.982178601282</v>
+        <v>1813.317156488845</v>
       </c>
       <c r="K4">
-        <v>612.6988125982201</v>
+        <v>604.3126316061704</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1443.180836606522</v>
+        <v>-1355.684152515792</v>
       </c>
       <c r="J5">
-        <v>1805.86978543643</v>
+        <v>1939.086270465979</v>
       </c>
       <c r="K5">
-        <v>893.3787703547952</v>
+        <v>882.3598413629305</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1373.049140543649</v>
+        <v>-1382.567109872399</v>
       </c>
       <c r="J6">
-        <v>1729.807558374745</v>
+        <v>1753.003685868024</v>
       </c>
       <c r="K6">
-        <v>1141.445768623115</v>
+        <v>1107.675857742654</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1301.02170323498</v>
+        <v>-1394.762765758017</v>
       </c>
       <c r="J7">
-        <v>1763.802119540834</v>
+        <v>1796.623148965778</v>
       </c>
       <c r="K7">
-        <v>1330.048398080067</v>
+        <v>1384.809559679559</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1364.054532149157</v>
+        <v>-1272.682436980681</v>
       </c>
       <c r="J8">
-        <v>1781.502762139741</v>
+        <v>1720.108688268209</v>
       </c>
       <c r="K8">
-        <v>1623.474772556814</v>
+        <v>1653.58122394163</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.42033738394092</v>
+        <v>-95.24981333008647</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1234.608477514547</v>
+        <v>-1277.395556143634</v>
       </c>
       <c r="J9">
-        <v>1685.739891699263</v>
+        <v>1607.957039466053</v>
       </c>
       <c r="K9">
-        <v>1817.272700494914</v>
+        <v>1723.833693679168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>225.1566097930012</v>
+        <v>215.8283384198035</v>
       </c>
       <c r="G10">
-        <v>-84.49574413066161</v>
+        <v>-82.83548412585658</v>
       </c>
       <c r="H10">
-        <v>855.2842660854712</v>
+        <v>898.8212312919333</v>
       </c>
       <c r="I10">
-        <v>-1208.810921702407</v>
+        <v>-1277.590412761628</v>
       </c>
       <c r="J10">
-        <v>1642.552197523454</v>
+        <v>1675.464026677888</v>
       </c>
       <c r="K10">
-        <v>1934.075012059925</v>
+        <v>1914.89820822517</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>169.6695982372914</v>
+        <v>163.6384982739049</v>
       </c>
       <c r="G11">
-        <v>-68.53702459728918</v>
+        <v>-63.89382277196021</v>
       </c>
       <c r="H11">
-        <v>1036.997063695519</v>
+        <v>1013.002930657069</v>
       </c>
       <c r="I11">
-        <v>-1223.488151765367</v>
+        <v>-1240.978365975664</v>
       </c>
       <c r="J11">
-        <v>1620.543785106101</v>
+        <v>1610.534120849458</v>
       </c>
       <c r="K11">
-        <v>2212.855652907857</v>
+        <v>2185.855661359089</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>144.228300468687</v>
+        <v>143.173809373676</v>
       </c>
       <c r="G12">
-        <v>-48.81326115470198</v>
+        <v>-50.1885651461121</v>
       </c>
       <c r="H12">
-        <v>1128.836642722046</v>
+        <v>1148.52475845632</v>
       </c>
       <c r="I12">
-        <v>-1112.733263509616</v>
+        <v>-1134.331115321631</v>
       </c>
       <c r="J12">
-        <v>1491.123332571492</v>
+        <v>1439.162960435109</v>
       </c>
       <c r="K12">
-        <v>2280.876048296119</v>
+        <v>2429.059814469589</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.6339284824216</v>
+        <v>122.9037861568888</v>
       </c>
       <c r="G13">
-        <v>-33.87038936399968</v>
+        <v>-34.99740249725204</v>
       </c>
       <c r="H13">
-        <v>1322.428333856849</v>
+        <v>1269.400036424715</v>
       </c>
       <c r="I13">
-        <v>-1101.896907400588</v>
+        <v>-1096.10442281533</v>
       </c>
       <c r="J13">
-        <v>1409.057956354752</v>
+        <v>1422.053837768284</v>
       </c>
       <c r="K13">
-        <v>2605.421667997692</v>
+        <v>2623.412912151995</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.9267599292773</v>
+        <v>109.3129326704813</v>
       </c>
       <c r="G14">
-        <v>-16.63075321102861</v>
+        <v>-17.5405197854767</v>
       </c>
       <c r="H14">
-        <v>1276.178308922498</v>
+        <v>1342.768735814109</v>
       </c>
       <c r="I14">
-        <v>-1144.005874314243</v>
+        <v>-1063.39031511802</v>
       </c>
       <c r="J14">
-        <v>1435.074282100258</v>
+        <v>1376.117446256434</v>
       </c>
       <c r="K14">
-        <v>2693.344507736876</v>
+        <v>2558.149709716731</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.47641186791394</v>
+        <v>101.7540242224442</v>
       </c>
       <c r="G15">
-        <v>-0.922889847930532</v>
+        <v>-0.9020564824967605</v>
       </c>
       <c r="H15">
-        <v>1428.015608583707</v>
+        <v>1395.857516716529</v>
       </c>
       <c r="I15">
-        <v>-1064.170822834102</v>
+        <v>-1002.133970302281</v>
       </c>
       <c r="J15">
-        <v>1315.131192618454</v>
+        <v>1372.609315754238</v>
       </c>
       <c r="K15">
-        <v>2668.554581964854</v>
+        <v>2837.099502751997</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.97053890780249</v>
+        <v>89.62191555705209</v>
       </c>
       <c r="G16">
-        <v>15.36843850709786</v>
+        <v>14.91802878791504</v>
       </c>
       <c r="H16">
-        <v>1386.357925335549</v>
+        <v>1356.66835846647</v>
       </c>
       <c r="I16">
-        <v>-1000.715859457847</v>
+        <v>-1030.175532048306</v>
       </c>
       <c r="J16">
-        <v>1378.528194087402</v>
+        <v>1327.740230890333</v>
       </c>
       <c r="K16">
-        <v>2882.518726129129</v>
+        <v>2873.115684682992</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.64491438709177</v>
+        <v>85.24718770025402</v>
       </c>
       <c r="G17">
-        <v>32.64546875696167</v>
+        <v>30.95050364557445</v>
       </c>
       <c r="H17">
-        <v>1476.31383430661</v>
+        <v>1538.360067674671</v>
       </c>
       <c r="I17">
-        <v>-1016.612280057238</v>
+        <v>-993.9580088240222</v>
       </c>
       <c r="J17">
-        <v>1331.491872964052</v>
+        <v>1240.624042788807</v>
       </c>
       <c r="K17">
-        <v>2975.753414655067</v>
+        <v>2931.882676005209</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.93805921500216</v>
+        <v>79.17522849946266</v>
       </c>
       <c r="G18">
-        <v>50.17969780094131</v>
+        <v>47.94998625706098</v>
       </c>
       <c r="H18">
-        <v>1496.649093094178</v>
+        <v>1497.512295886561</v>
       </c>
       <c r="I18">
-        <v>-960.6105219683839</v>
+        <v>-920.8648198823761</v>
       </c>
       <c r="J18">
-        <v>1248.941004025698</v>
+        <v>1255.348257697831</v>
       </c>
       <c r="K18">
-        <v>2919.506795559616</v>
+        <v>3065.927562514654</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.34106920012984</v>
+        <v>74.01914249952179</v>
       </c>
       <c r="G19">
-        <v>65.67671233929529</v>
+        <v>67.46680792028123</v>
       </c>
       <c r="H19">
-        <v>1525.559105292577</v>
+        <v>1602.776626919112</v>
       </c>
       <c r="I19">
-        <v>-841.483612262926</v>
+        <v>-850.1823885155782</v>
       </c>
       <c r="J19">
-        <v>1184.595634845883</v>
+        <v>1157.323319891225</v>
       </c>
       <c r="K19">
-        <v>3131.456733180074</v>
+        <v>3082.728980745916</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.99453048609237</v>
+        <v>72.48670207278489</v>
       </c>
       <c r="G20">
-        <v>78.79846670857521</v>
+        <v>83.64899668916941</v>
       </c>
       <c r="H20">
-        <v>1539.576614759673</v>
+        <v>1524.988352857657</v>
       </c>
       <c r="I20">
-        <v>-816.7938901004964</v>
+        <v>-867.4537754710663</v>
       </c>
       <c r="J20">
-        <v>1153.424902900937</v>
+        <v>1131.141337219801</v>
       </c>
       <c r="K20">
-        <v>3265.23614966787</v>
+        <v>3089.444180483145</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.40988053933447</v>
+        <v>74.42179825135297</v>
       </c>
       <c r="G21">
-        <v>101.412728594084</v>
+        <v>93.59378097457629</v>
       </c>
       <c r="H21">
-        <v>1552.742629424504</v>
+        <v>1651.256873299328</v>
       </c>
       <c r="I21">
-        <v>-825.0577448675331</v>
+        <v>-825.0733172890081</v>
       </c>
       <c r="J21">
-        <v>1108.634882070925</v>
+        <v>1030.855047883248</v>
       </c>
       <c r="K21">
-        <v>3057.746154134304</v>
+        <v>3262.920704422153</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.42574431573181</v>
+        <v>70.37303229333556</v>
       </c>
       <c r="G22">
-        <v>116.6889856897379</v>
+        <v>111.132516458129</v>
       </c>
       <c r="H22">
-        <v>1534.604680055857</v>
+        <v>1622.669136625432</v>
       </c>
       <c r="I22">
-        <v>-781.1473582752136</v>
+        <v>-764.1847727258868</v>
       </c>
       <c r="J22">
-        <v>1036.35514032209</v>
+        <v>1022.428751465168</v>
       </c>
       <c r="K22">
-        <v>3162.147225850965</v>
+        <v>3072.643474864146</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.86241432064251</v>
+        <v>67.57017077802112</v>
       </c>
       <c r="G23">
-        <v>132.9331072615942</v>
+        <v>126.4207224770276</v>
       </c>
       <c r="H23">
-        <v>1557.620828717936</v>
+        <v>1670.634053841609</v>
       </c>
       <c r="I23">
-        <v>-696.1135074294616</v>
+        <v>-686.6189107732945</v>
       </c>
       <c r="J23">
-        <v>974.4922492328594</v>
+        <v>1005.107640133483</v>
       </c>
       <c r="K23">
-        <v>3176.823059807746</v>
+        <v>3311.438973224644</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.85407992304064</v>
+        <v>62.31034088463226</v>
       </c>
       <c r="G24">
-        <v>147.4013711412309</v>
+        <v>147.3429690225549</v>
       </c>
       <c r="H24">
-        <v>1646.838998824695</v>
+        <v>1628.52428997771</v>
       </c>
       <c r="I24">
-        <v>-646.9916516784828</v>
+        <v>-679.8686036804511</v>
       </c>
       <c r="J24">
-        <v>918.7098045029202</v>
+        <v>914.7120835756933</v>
       </c>
       <c r="K24">
-        <v>3281.725011373161</v>
+        <v>3161.373199799471</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.85944472141976</v>
+        <v>59.01657276980299</v>
       </c>
       <c r="G25">
-        <v>166.7306853917509</v>
+        <v>159.1722342955541</v>
       </c>
       <c r="H25">
-        <v>1748.917901405165</v>
+        <v>1606.273138334018</v>
       </c>
       <c r="I25">
-        <v>-591.744033235873</v>
+        <v>-598.7400355372278</v>
       </c>
       <c r="J25">
-        <v>892.9329059743378</v>
+        <v>838.8072113075712</v>
       </c>
       <c r="K25">
-        <v>2997.782095030237</v>
+        <v>3065.386648474662</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.95128833048152</v>
+        <v>62.6345907233461</v>
       </c>
       <c r="G26">
-        <v>177.4014667987048</v>
+        <v>178.87501452832</v>
       </c>
       <c r="H26">
-        <v>1757.12636889604</v>
+        <v>1705.759499385796</v>
       </c>
       <c r="I26">
-        <v>-539.7739514100701</v>
+        <v>-554.9008237312763</v>
       </c>
       <c r="J26">
-        <v>847.3980490300571</v>
+        <v>860.2918110794756</v>
       </c>
       <c r="K26">
-        <v>2989.29755855593</v>
+        <v>3078.262575791332</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.13083581136671</v>
+        <v>59.00410906938787</v>
       </c>
       <c r="G27">
-        <v>206.4017075006083</v>
+        <v>190.9270610961626</v>
       </c>
       <c r="H27">
-        <v>1687.237175879703</v>
+        <v>1700.797457155561</v>
       </c>
       <c r="I27">
-        <v>-508.9357371564221</v>
+        <v>-487.1976734853836</v>
       </c>
       <c r="J27">
-        <v>774.5328278405919</v>
+        <v>759.2213507809707</v>
       </c>
       <c r="K27">
-        <v>3051.196183551249</v>
+        <v>3058.827704606158</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.21671732244365</v>
+        <v>55.28730126138993</v>
       </c>
       <c r="G28">
-        <v>207.6725887636123</v>
+        <v>212.1642151732095</v>
       </c>
       <c r="H28">
-        <v>1790.645789511555</v>
+        <v>1680.827890309097</v>
       </c>
       <c r="I28">
-        <v>-440.8562309555801</v>
+        <v>-436.4568080665188</v>
       </c>
       <c r="J28">
-        <v>703.3813441973952</v>
+        <v>720.8994991616059</v>
       </c>
       <c r="K28">
-        <v>3124.089414587873</v>
+        <v>2934.716758834757</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.35779265918986</v>
+        <v>54.8169213956845</v>
       </c>
       <c r="G29">
-        <v>220.0601237503702</v>
+        <v>229.9608636738169</v>
       </c>
       <c r="H29">
-        <v>1780.442720725289</v>
+        <v>1799.196828277713</v>
       </c>
       <c r="I29">
-        <v>-377.7485838854942</v>
+        <v>-398.1372738278203</v>
       </c>
       <c r="J29">
-        <v>671.5704536406298</v>
+        <v>683.2286429552959</v>
       </c>
       <c r="K29">
-        <v>2915.166726857986</v>
+        <v>2862.141526083443</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.01364346676679</v>
+        <v>55.4033182289564</v>
       </c>
       <c r="G30">
-        <v>248.9590642883101</v>
+        <v>251.2282601179414</v>
       </c>
       <c r="H30">
-        <v>1700.874869945381</v>
+        <v>1733.881709631161</v>
       </c>
       <c r="I30">
-        <v>-330.0896570574669</v>
+        <v>-321.2265594522348</v>
       </c>
       <c r="J30">
-        <v>634.1188025288719</v>
+        <v>606.7173893813671</v>
       </c>
       <c r="K30">
-        <v>2878.051097370758</v>
+        <v>2866.358457637989</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.18042762244939</v>
+        <v>51.06240267553445</v>
       </c>
       <c r="G31">
-        <v>268.3098131945802</v>
+        <v>265.1063893906517</v>
       </c>
       <c r="H31">
-        <v>1697.658248990972</v>
+        <v>1751.956440730427</v>
       </c>
       <c r="I31">
-        <v>-268.2481920347388</v>
+        <v>-262.2711417462786</v>
       </c>
       <c r="J31">
-        <v>575.3980763915832</v>
+        <v>575.4714847107496</v>
       </c>
       <c r="K31">
-        <v>2543.108511889784</v>
+        <v>2735.520561991309</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.1477484256302</v>
+        <v>48.75057308404293</v>
       </c>
       <c r="G32">
-        <v>290.7280193986851</v>
+        <v>280.7351230703784</v>
       </c>
       <c r="H32">
-        <v>1765.722882613326</v>
+        <v>1863.376853123077</v>
       </c>
       <c r="I32">
-        <v>-203.8513372947654</v>
+        <v>-215.9296033569368</v>
       </c>
       <c r="J32">
-        <v>526.5154286635054</v>
+        <v>541.6920570946321</v>
       </c>
       <c r="K32">
-        <v>2521.249544634143</v>
+        <v>2597.934682814194</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.6492730006178</v>
+        <v>51.20514278850068</v>
       </c>
       <c r="G33">
-        <v>303.3828718936894</v>
+        <v>309.7348641247325</v>
       </c>
       <c r="H33">
-        <v>1763.032931218931</v>
+        <v>1782.629200948919</v>
       </c>
       <c r="I33">
-        <v>-151.6692295523899</v>
+        <v>-144.7654254890714</v>
       </c>
       <c r="J33">
-        <v>492.7403280567872</v>
+        <v>511.6021683939475</v>
       </c>
       <c r="K33">
-        <v>2330.031590473711</v>
+        <v>2463.315274244784</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.83948128128058</v>
+        <v>47.41980641182708</v>
       </c>
       <c r="G34">
-        <v>322.1468592237027</v>
+        <v>308.6038567840536</v>
       </c>
       <c r="H34">
-        <v>1872.472831364666</v>
+        <v>1884.852690493731</v>
       </c>
       <c r="I34">
-        <v>-84.08525377051028</v>
+        <v>-82.8910584328721</v>
       </c>
       <c r="J34">
-        <v>464.0781517063175</v>
+        <v>452.9142787295165</v>
       </c>
       <c r="K34">
-        <v>2170.474866062471</v>
+        <v>2122.569383689555</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.08302794745083</v>
+        <v>49.49310798339885</v>
       </c>
       <c r="G35">
-        <v>319.2175544497933</v>
+        <v>345.7863978323048</v>
       </c>
       <c r="H35">
-        <v>1908.046398408328</v>
+        <v>1735.690622678101</v>
       </c>
       <c r="I35">
-        <v>-19.15384338775968</v>
+        <v>-19.10187395446957</v>
       </c>
       <c r="J35">
-        <v>377.5694259520732</v>
+        <v>405.27149509152</v>
       </c>
       <c r="K35">
-        <v>1970.30353372932</v>
+        <v>2119.677677877512</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.91764289294924</v>
+        <v>45.40091262712597</v>
       </c>
       <c r="G36">
-        <v>339.036621371988</v>
+        <v>362.2831680039647</v>
       </c>
       <c r="H36">
-        <v>1877.538845548157</v>
+        <v>1909.522684205307</v>
       </c>
       <c r="I36">
-        <v>47.95472216530727</v>
+        <v>49.63982999797533</v>
       </c>
       <c r="J36">
-        <v>346.5934665931866</v>
+        <v>349.7627451659013</v>
       </c>
       <c r="K36">
-        <v>1852.047471376156</v>
+        <v>1771.318867813715</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.76303592065737</v>
+        <v>44.22575741570099</v>
       </c>
       <c r="G37">
-        <v>361.7946412024327</v>
+        <v>358.6110673273913</v>
       </c>
       <c r="H37">
-        <v>1835.947241095878</v>
+        <v>1822.198485539622</v>
       </c>
       <c r="I37">
-        <v>119.3733867358832</v>
+        <v>115.6390864375998</v>
       </c>
       <c r="J37">
-        <v>286.2322719946442</v>
+        <v>308.3676996021825</v>
       </c>
       <c r="K37">
-        <v>1570.350286999115</v>
+        <v>1625.182068522006</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.25397710357267</v>
+        <v>47.72368192268894</v>
       </c>
       <c r="G38">
-        <v>361.734606706694</v>
+        <v>374.0031170476516</v>
       </c>
       <c r="H38">
-        <v>1877.975290274434</v>
+        <v>1886.883313392195</v>
       </c>
       <c r="I38">
-        <v>187.6354431527627</v>
+        <v>189.1600761500574</v>
       </c>
       <c r="J38">
-        <v>254.2698949653809</v>
+        <v>254.052945426774</v>
       </c>
       <c r="K38">
-        <v>1398.694016106844</v>
+        <v>1380.36783619014</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.3653084077038</v>
+        <v>46.49297742375695</v>
       </c>
       <c r="G39">
-        <v>393.9586405757674</v>
+        <v>409.7609048455852</v>
       </c>
       <c r="H39">
-        <v>1904.051060205243</v>
+        <v>1904.793384157406</v>
       </c>
       <c r="I39">
-        <v>250.0244388265837</v>
+        <v>243.4648902830051</v>
       </c>
       <c r="J39">
-        <v>200.0518015216076</v>
+        <v>206.8156171728694</v>
       </c>
       <c r="K39">
-        <v>1173.982977622143</v>
+        <v>1203.534471176869</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.50963370302987</v>
+        <v>44.47566151359639</v>
       </c>
       <c r="G40">
-        <v>424.1644808087404</v>
+        <v>393.9156586297656</v>
       </c>
       <c r="H40">
-        <v>1909.242266053245</v>
+        <v>1934.061611976995</v>
       </c>
       <c r="I40">
-        <v>344.7640521176449</v>
+        <v>340.4286776999027</v>
       </c>
       <c r="J40">
-        <v>152.5313418184774</v>
+        <v>154.132574742377</v>
       </c>
       <c r="K40">
-        <v>883.0583657160888</v>
+        <v>919.9151643836403</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.4903709587288</v>
+        <v>45.57133874868973</v>
       </c>
       <c r="G41">
-        <v>440.6822397308164</v>
+        <v>410.8201867156731</v>
       </c>
       <c r="H41">
-        <v>1913.240616889629</v>
+        <v>1889.167953871627</v>
       </c>
       <c r="I41">
-        <v>414.2592053872344</v>
+        <v>393.1745409693327</v>
       </c>
       <c r="J41">
-        <v>106.4864569718365</v>
+        <v>98.55849678684099</v>
       </c>
       <c r="K41">
-        <v>631.2146691477083</v>
+        <v>650.4483855247739</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.64273434340338</v>
+        <v>40.86006234819935</v>
       </c>
       <c r="G42">
-        <v>433.295271974711</v>
+        <v>458.2313524150766</v>
       </c>
       <c r="H42">
-        <v>1961.220222784988</v>
+        <v>1867.196162016934</v>
       </c>
       <c r="I42">
-        <v>496.4913004093139</v>
+        <v>486.1739807949578</v>
       </c>
       <c r="J42">
-        <v>52.11152306331586</v>
+        <v>51.30451443422179</v>
       </c>
       <c r="K42">
-        <v>332.8396074835782</v>
+        <v>324.7451439115167</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.76854633349696</v>
+        <v>42.33272225446061</v>
       </c>
       <c r="G43">
-        <v>451.3694813061166</v>
+        <v>476.0929563494169</v>
       </c>
       <c r="H43">
-        <v>1988.458501887948</v>
+        <v>1981.359096667965</v>
       </c>
       <c r="I43">
-        <v>557.8881508469136</v>
+        <v>544.3064253723479</v>
       </c>
       <c r="J43">
-        <v>5.268982262929743</v>
+        <v>5.028672045360745</v>
       </c>
       <c r="K43">
-        <v>32.17334293465809</v>
+        <v>34.0513039484071</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.81834150159435</v>
+        <v>40.28644271508699</v>
       </c>
       <c r="G44">
-        <v>481.537017107492</v>
+        <v>483.9410000751184</v>
       </c>
       <c r="H44">
-        <v>1934.649356806118</v>
+        <v>2001.882481240489</v>
       </c>
       <c r="I44">
-        <v>655.4696911091161</v>
+        <v>612.8423248494836</v>
       </c>
       <c r="J44">
-        <v>-42.25165450331737</v>
+        <v>-44.35371021575114</v>
       </c>
       <c r="K44">
-        <v>-279.7295693863803</v>
+        <v>-297.0652376743301</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.7262326834624</v>
+        <v>42.75265187960566</v>
       </c>
       <c r="G45">
-        <v>494.5922180304028</v>
+        <v>489.4987940718676</v>
       </c>
       <c r="H45">
-        <v>1839.352606980872</v>
+        <v>1949.032160461426</v>
       </c>
       <c r="I45">
-        <v>729.7132122671788</v>
+        <v>754.7509468927112</v>
       </c>
       <c r="J45">
-        <v>-89.23554859024397</v>
+        <v>-92.81654401695026</v>
       </c>
       <c r="K45">
-        <v>-595.6979620301748</v>
+        <v>-642.0554379334301</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.25181556562416</v>
+        <v>40.04141671290904</v>
       </c>
       <c r="G46">
-        <v>523.8752232984114</v>
+        <v>496.1365068394248</v>
       </c>
       <c r="H46">
-        <v>1984.357652393556</v>
+        <v>1931.533245416761</v>
       </c>
       <c r="I46">
-        <v>819.266693953213</v>
+        <v>801.2468625721276</v>
       </c>
       <c r="J46">
-        <v>-134.4947040505337</v>
+        <v>-147.5414483235349</v>
       </c>
       <c r="K46">
-        <v>-925.2530254949577</v>
+        <v>-972.2327666625807</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.44327753581504</v>
+        <v>41.09575913708177</v>
       </c>
       <c r="G47">
-        <v>510.5678204692191</v>
+        <v>505.1868549918117</v>
       </c>
       <c r="H47">
-        <v>1844.523261327432</v>
+        <v>1849.98968396283</v>
       </c>
       <c r="I47">
-        <v>906.7968466246834</v>
+        <v>879.0594290560396</v>
       </c>
       <c r="J47">
-        <v>-196.5374941899588</v>
+        <v>-189.8027388498086</v>
       </c>
       <c r="K47">
-        <v>-1354.642904347697</v>
+        <v>-1308.282654334084</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.8605217055974</v>
+        <v>39.42914033810118</v>
       </c>
       <c r="G48">
-        <v>541.1877274832711</v>
+        <v>541.53543801512</v>
       </c>
       <c r="H48">
-        <v>1980.735638296675</v>
+        <v>2001.031271186079</v>
       </c>
       <c r="I48">
-        <v>991.4241277021273</v>
+        <v>999.7977568806905</v>
       </c>
       <c r="J48">
-        <v>-237.7947291294169</v>
+        <v>-246.8081522532933</v>
       </c>
       <c r="K48">
-        <v>-1632.211351260989</v>
+        <v>-1784.735570116336</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.55628100108235</v>
+        <v>39.09279051180125</v>
       </c>
       <c r="G49">
-        <v>538.9593403400232</v>
+        <v>555.9213269186292</v>
       </c>
       <c r="H49">
-        <v>2005.147829850523</v>
+        <v>1961.650060333034</v>
       </c>
       <c r="I49">
-        <v>1029.571305090589</v>
+        <v>1020.818104868624</v>
       </c>
       <c r="J49">
-        <v>-284.8837801687445</v>
+        <v>-289.9633948052312</v>
       </c>
       <c r="K49">
-        <v>-2131.804322028072</v>
+        <v>-2177.454507107555</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.13171075055521</v>
+        <v>40.2281065896826</v>
       </c>
       <c r="G50">
-        <v>559.7745745357782</v>
+        <v>563.5116913684495</v>
       </c>
       <c r="H50">
-        <v>2028.954161149258</v>
+        <v>1860.090439591795</v>
       </c>
       <c r="I50">
-        <v>1193.015364531473</v>
+        <v>1125.605525858572</v>
       </c>
       <c r="J50">
-        <v>-338.763854948659</v>
+        <v>-347.9667306849906</v>
       </c>
       <c r="K50">
-        <v>-2628.355799911115</v>
+        <v>-2517.358439127415</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.22615644016467</v>
+        <v>38.89457445647115</v>
       </c>
       <c r="G51">
-        <v>612.4850829510028</v>
+        <v>621.5310240814351</v>
       </c>
       <c r="H51">
-        <v>1914.410603495435</v>
+        <v>1988.849674053254</v>
       </c>
       <c r="I51">
-        <v>1275.821443463531</v>
+        <v>1245.027991097716</v>
       </c>
       <c r="J51">
-        <v>-388.0746695142204</v>
+        <v>-387.9640681277908</v>
       </c>
       <c r="K51">
-        <v>-3048.124354326481</v>
+        <v>-3001.622990266225</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.90213508615165</v>
+        <v>37.01330295995849</v>
       </c>
       <c r="G52">
-        <v>605.3633574603112</v>
+        <v>579.6243136916804</v>
       </c>
       <c r="H52">
-        <v>1958.48201545414</v>
+        <v>1902.748972886582</v>
       </c>
       <c r="I52">
-        <v>1410.884990526538</v>
+        <v>1395.502262756745</v>
       </c>
       <c r="J52">
-        <v>-435.2557400517795</v>
+        <v>-453.0656970532463</v>
       </c>
       <c r="K52">
-        <v>-3362.068316994799</v>
+        <v>-3493.723224311463</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.83327406853409</v>
+        <v>36.29628713645405</v>
       </c>
       <c r="G53">
-        <v>657.5074603020594</v>
+        <v>608.4462813708303</v>
       </c>
       <c r="H53">
-        <v>2002.386384710682</v>
+        <v>2063.58239107911</v>
       </c>
       <c r="I53">
-        <v>1392.140394055603</v>
+        <v>1497.450942516813</v>
       </c>
       <c r="J53">
-        <v>-495.1947540169347</v>
+        <v>-474.1939403825523</v>
       </c>
       <c r="K53">
-        <v>-3942.437767209075</v>
+        <v>-3909.784622710614</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.70378593423246</v>
+        <v>35.16797582288345</v>
       </c>
       <c r="G54">
-        <v>653.5808484693373</v>
+        <v>658.4625072684919</v>
       </c>
       <c r="H54">
-        <v>2009.102101789333</v>
+        <v>1969.436587975587</v>
       </c>
       <c r="I54">
-        <v>1556.709974934313</v>
+        <v>1633.189017324109</v>
       </c>
       <c r="J54">
-        <v>-519.6491489590783</v>
+        <v>-517.012163946288</v>
       </c>
       <c r="K54">
-        <v>-4077.411052277816</v>
+        <v>-4217.609037510623</v>
       </c>
     </row>
   </sheetData>
